--- a/DOCS/LAB2/LAB02_BBT_TCs.xlsx
+++ b/DOCS/LAB2/LAB02_BBT_TCs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Telefonnummer</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Ich habe verschiedene Testing (ECP+BVA) Fur den createUser gemacht, und zwar, ein User kann ein Telefonnummer haben, nur wenn er ausgebildet aus 10 Ziffern ist, und mit Points zwischen 0 und 100)</t>
+  </si>
+  <si>
+    <t>Anzahl von Tests:</t>
+  </si>
+  <si>
+    <t>Anzahl von fehlgeschlagene Tests</t>
+  </si>
+  <si>
+    <t>Anzahl von gultige Tests</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
+    <t>Teststatistik nacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl von gute Tests </t>
   </si>
 </sst>
 </file>
@@ -132,15 +150,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,153 +475,193 @@
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1000000001</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="E2" s="4"/>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>100000000</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
         <v>101</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>10000000000</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
         <v>-1</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
         <v>-1</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>9999999999</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
         <v>99</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
         <v>101</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -611,11 +669,11 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -623,7 +681,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/DOCS/LAB2/LAB02_BBT_TCs.xlsx
+++ b/DOCS/LAB2/LAB02_BBT_TCs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Telefonnummer</t>
   </si>
@@ -90,16 +90,28 @@
     <t>Anzahl von fehlgeschlagene Tests</t>
   </si>
   <si>
-    <t>Anzahl von gultige Tests</t>
-  </si>
-  <si>
     <t>Statistik</t>
   </si>
   <si>
-    <t>Teststatistik nacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl von gute Tests </t>
+    <t>Anzahl bestandenden Tests</t>
+  </si>
+  <si>
+    <t>Anzahl Fehler</t>
+  </si>
+  <si>
+    <t>Beseitigte Fehler</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Statistik Nach Korrektur</t>
+  </si>
+  <si>
+    <t>Anzahl von bestandenden Test</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +503,7 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -510,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,10 +536,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -541,10 +553,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -556,6 +568,12 @@
         <v>11</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -570,10 +588,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,10 +605,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -604,10 +619,10 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,6 +637,12 @@
         <v>99</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -633,6 +654,12 @@
         <v>100</v>
       </c>
       <c r="E10" s="4"/>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -644,6 +671,12 @@
         <v>101</v>
       </c>
       <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
